--- a/labs.xlsx
+++ b/labs.xlsx
@@ -20,27 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">ИБ</t>
   </si>
   <si>
+    <t xml:space="preserve">теория</t>
+  </si>
+  <si>
     <t xml:space="preserve">ММО</t>
   </si>
   <si>
     <t xml:space="preserve">ПИСдец</t>
   </si>
   <si>
-    <t xml:space="preserve">теория осталась</t>
-  </si>
-  <si>
-    <t xml:space="preserve">это 1Б</t>
+    <t xml:space="preserve">default, constraint, pattern переписать 2а</t>
   </si>
   <si>
     <t xml:space="preserve">ПиРБДИП</t>
   </si>
   <si>
-    <t xml:space="preserve">ну отчёт вроде есть, но вроде нет</t>
+    <t xml:space="preserve">отчёты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На вопросы надо будет овтетить</t>
   </si>
   <si>
     <t xml:space="preserve">ТРВП</t>
@@ -59,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +84,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -104,14 +113,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -155,32 +164,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,176 +449,262 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="n">
         <f aca="false">B1+1</f>
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <f aca="false">C1+1</f>
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="1" t="n">
         <f aca="false">D1+1</f>
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="1" t="n">
         <f aca="false">E1+1</f>
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="1" t="n">
         <f aca="false">F1+1</f>
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="1" t="n">
         <f aca="false">G1+1</f>
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1" s="1" t="n">
         <f aca="false">H1+1</f>
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1" s="1" t="n">
         <f aca="false">I1+1</f>
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1" s="1" t="n">
         <f aca="false">J1+1</f>
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="n">
+      <c r="L1" s="1" t="n">
         <f aca="false">K1+1</f>
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1" s="1" t="n">
         <f aca="false">L1+1</f>
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="n">
+      <c r="N1" s="1" t="n">
         <f aca="false">M1+1</f>
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="n">
+      <c r="O1" s="1" t="n">
         <f aca="false">N1+1</f>
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="n">
+      <c r="P1" s="1" t="n">
         <f aca="false">O1+1</f>
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="n">
+      <c r="Q1" s="1" t="n">
         <f aca="false">P1+1</f>
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="n">
+      <c r="R1" s="1" t="n">
         <f aca="false">Q1+1</f>
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="n">
+      <c r="S1" s="1" t="n">
         <f aca="false">R1+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -20,27 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">ИБ</t>
   </si>
   <si>
+    <t xml:space="preserve">Задачи на листе взять</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ММО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИСдец</t>
+  </si>
+  <si>
     <t xml:space="preserve">теория</t>
   </si>
   <si>
-    <t xml:space="preserve">ММО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИСдец</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default, constraint, pattern переписать 2а</t>
-  </si>
-  <si>
     <t xml:space="preserve">ПиРБДИП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отчёты</t>
   </si>
   <si>
     <t xml:space="preserve">На вопросы надо будет овтетить</t>
@@ -92,7 +89,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,14 +110,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -164,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +193,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -535,21 +542,21 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
@@ -559,8 +566,8 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -583,15 +590,13 @@
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -608,12 +613,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -632,7 +635,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -655,44 +658,44 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -20,33 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">ИБ</t>
   </si>
   <si>
-    <t xml:space="preserve">Задачи на листе взять</t>
-  </si>
-  <si>
     <t xml:space="preserve">ММО</t>
   </si>
   <si>
     <t xml:space="preserve">ПИСдец</t>
   </si>
   <si>
-    <t xml:space="preserve">теория</t>
+    <t xml:space="preserve">типа</t>
   </si>
   <si>
     <t xml:space="preserve">ПиРБДИП</t>
   </si>
   <si>
-    <t xml:space="preserve">На вопросы надо будет овтетить</t>
-  </si>
-  <si>
     <t xml:space="preserve">ТРВП</t>
   </si>
   <si>
     <t xml:space="preserve">АиБИС оно конём</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стили не подтягиваются, ну и нжинкс с ними</t>
   </si>
   <si>
     <t xml:space="preserve">ПСКП</t>
@@ -59,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +85,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,13 +122,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -128,8 +133,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -167,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +193,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,7 +205,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,7 +271,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -267,7 +280,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -455,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,12 +555,10 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -562,12 +573,12 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -585,18 +596,18 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -608,20 +619,18 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -635,10 +644,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -658,12 +667,14 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -678,17 +689,17 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -696,12 +707,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>

--- a/labs.xlsx
+++ b/labs.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6-term\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3F2D3-4EB1-44DE-8954-E25D4E71E999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,64 +34,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">ИБ</t>
+    <t>ИБ</t>
   </si>
   <si>
-    <t xml:space="preserve">ММО</t>
+    <t>ММО</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИСдец</t>
+    <t>ПИСдец</t>
   </si>
   <si>
-    <t xml:space="preserve">типа</t>
+    <t>ПиРБДИП</t>
   </si>
   <si>
-    <t xml:space="preserve">ПиРБДИП</t>
+    <t>ТРВП</t>
   </si>
   <si>
-    <t xml:space="preserve">ТРВП</t>
+    <t>АиБИС оно конём</t>
   </si>
   <si>
-    <t xml:space="preserve">АиБИС оно конём</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стили не подтягиваются, ну и нжинкс с ними</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПСКП</t>
+    <t>ПСКП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -100,7 +90,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,19 +117,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -147,85 +149,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -284,60 +230,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -369,7 +331,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -393,7 +355,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -453,102 +415,101 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <f aca="false">B1+1</f>
+      <c r="C1" s="1">
+        <f t="shared" ref="C1:S1" si="0">B1+1</f>
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <f aca="false">C1+1</f>
+      <c r="D1" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <f aca="false">D1+1</f>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <f aca="false">E1+1</f>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <f aca="false">F1+1</f>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
-        <f aca="false">G1+1</f>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
-        <f aca="false">H1+1</f>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <f aca="false">I1+1</f>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
-        <f aca="false">J1+1</f>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
-        <f aca="false">K1+1</f>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
-        <f aca="false">L1+1</f>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
-        <f aca="false">M1+1</f>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
-        <f aca="false">N1+1</f>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
-        <f aca="false">O1+1</f>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
-        <f aca="false">P1+1</f>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
-        <f aca="false">Q1+1</f>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
-        <f aca="false">R1+1</f>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +520,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -571,7 +532,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -594,7 +555,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -602,12 +563,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -619,22 +578,22 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -642,12 +601,12 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -665,17 +624,15 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -689,17 +646,17 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -707,12 +664,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -721,12 +678,7 @@
       <c r="S8" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/labs.xlsx
+++ b/labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6-term\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3F2D3-4EB1-44DE-8954-E25D4E71E999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9B753-7956-4B08-A6FD-00262CEFDB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,12 +117,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -137,6 +131,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -152,20 +164,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,7 +445,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,12 +535,12 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -540,9 +555,9 @@
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -563,10 +578,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -586,15 +601,15 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -606,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -631,12 +646,12 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -646,13 +661,13 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -664,12 +679,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
